--- a/billion_pixel_results.xlsx
+++ b/billion_pixel_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252BBBC-3C38-B948-B15E-9E32CBDEAB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9859048-29D5-914C-A0B9-4615297BF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26040" windowHeight="16260" xr2:uid="{872CC373-8FBA-D545-9F2D-7B742F123F06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{872CC373-8FBA-D545-9F2D-7B742F123F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>新高橋</t>
     <rPh sb="0" eb="2">
@@ -203,6 +203,13 @@
     <t>カメラ位置姿勢推定結果</t>
     <rPh sb="7" eb="11">
       <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38枚</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +242,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,72 +272,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -338,7 +289,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -350,65 +342,23 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -420,63 +370,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,15 +429,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161291</xdr:colOff>
+      <xdr:colOff>42333</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80745</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5503110</xdr:colOff>
+      <xdr:colOff>4712800</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>79765</xdr:rowOff>
+      <xdr:rowOff>135468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +452,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -531,14 +460,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="16714" t="2956"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3023024" y="4872878"/>
-          <a:ext cx="5341819" cy="4571020"/>
+          <a:off x="2904066" y="5096933"/>
+          <a:ext cx="4670467" cy="4656668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,15 +478,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1396643</xdr:colOff>
+      <xdr:colOff>996593</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>44027</xdr:rowOff>
+      <xdr:rowOff>35229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4208466</xdr:colOff>
+      <xdr:colOff>4025900</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>237066</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,7 +501,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -581,14 +509,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="6521"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15603710" y="2008294"/>
-          <a:ext cx="2811823" cy="2733039"/>
+          <a:off x="13476460" y="2270429"/>
+          <a:ext cx="3029307" cy="2752421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,13 +527,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>583934</xdr:colOff>
+      <xdr:colOff>262201</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>31373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4957011</xdr:colOff>
+      <xdr:colOff>4635278</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>228750</xdr:rowOff>
     </xdr:to>
@@ -631,7 +558,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3445667" y="1995640"/>
+          <a:off x="3123934" y="2012573"/>
           <a:ext cx="4373077" cy="2737377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -644,15 +571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>497840</xdr:colOff>
+      <xdr:colOff>159173</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27530</xdr:rowOff>
+      <xdr:rowOff>61397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4998720</xdr:colOff>
+      <xdr:colOff>4660053</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>195183</xdr:rowOff>
+      <xdr:rowOff>229050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -675,8 +602,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9052560" y="1978250"/>
+          <a:off x="7829973" y="2296597"/>
           <a:ext cx="4500880" cy="2707653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97368</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4707467</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>201310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE584F9A-97C6-CF40-8BBC-F16EB8E2B346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7768168" y="5122597"/>
+          <a:ext cx="4610099" cy="4696846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211441</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4617105</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>202225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E4988A-C8C8-5C47-97B5-DA32AB7B77EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12691308" y="5112514"/>
+          <a:ext cx="4405664" cy="4707844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,267 +1015,328 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="6" width="63.85546875" customWidth="1"/>
+    <col min="3" max="6" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="31">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1"/>
     <row r="3" spans="1:6" ht="28" thickBot="1">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" thickBot="1"/>
+    <row r="4" spans="1:6" ht="21" thickBot="1">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
     <row r="5" spans="1:6" ht="43" thickBot="1">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="22" thickBot="1">
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="21" thickBot="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" ht="21" thickBot="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="2:5" ht="21" thickBot="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:5" ht="42">
-      <c r="B37" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="3"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" ht="21" thickBot="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" ht="60" customHeight="1" thickBot="1">
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" t="s">
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:6" ht="21" thickBot="1">
+      <c r="B38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" ht="21" thickBot="1">
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="D39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/billion_pixel_results.xlsx
+++ b/billion_pixel_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichiro/Documents/GitHub/billion_pixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9859048-29D5-914C-A0B9-4615297BF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F25A189-BADF-C844-A841-A7B9DAE794A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{872CC373-8FBA-D545-9F2D-7B742F123F06}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{872CC373-8FBA-D545-9F2D-7B742F123F06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>新高橋</t>
     <rPh sb="0" eb="2">
@@ -210,6 +210,60 @@
     <t>38枚</t>
     <rPh sb="2" eb="3">
       <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピポーラ線の計算結果</t>
+    <rPh sb="7" eb="11">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点群とカメラ位置を表示したときに，位置姿勢は間違ってなさそうに見える．　カメラの外部パラメータを利用したエピポーラ拘束によってエピポーラ線を引いた時に全く正しい位置を通らないことから，正確な位置姿勢が求められていない？</t>
+    <rPh sb="0" eb="2">
+      <t>テングンテ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチカンケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>マッタク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タダシイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>モトメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピポーラ線と点の距離</t>
+    <rPh sb="0" eb="1">
+      <t>エピポーラセn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -370,20 +424,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -406,6 +454,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,6 +764,56 @@
         <a:xfrm>
           <a:off x="12691308" y="5112514"/>
           <a:ext cx="4405664" cy="4707844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67735</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4741335</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3860800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D4B900-6074-2645-8687-0D2761902EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2929468" y="10312400"/>
+          <a:ext cx="4673600" cy="3556000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77D91AD-7A1A-B24E-BA30-DAE87874FDCB}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1025,318 +1135,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1"/>
     <row r="3" spans="1:6" ht="28" thickBot="1">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="43" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="42" customHeight="1" thickBot="1">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="99" customHeight="1" thickBot="1">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="21" thickBot="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="21" thickBot="1">
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" ht="60" customHeight="1" thickBot="1">
-      <c r="B37" s="1" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="337" customHeight="1" thickBot="1">
+      <c r="B37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" ht="50" customHeight="1" thickBot="1">
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="60" customHeight="1" thickBot="1">
+      <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:6" ht="21" thickBot="1">
-      <c r="B38" s="10" t="s">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" ht="21" thickBot="1">
+      <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" ht="21" thickBot="1">
-      <c r="B39" s="1" t="s">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="21" thickBot="1">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
